--- a/stock_historical_data/60m/COMMITTED-SM.NS.xlsx
+++ b/stock_historical_data/60m/COMMITTED-SM.NS.xlsx
@@ -40800,7 +40800,9 @@
       <c r="P761" t="n">
         <v>0</v>
       </c>
-      <c r="Q761" t="inlineStr"/>
+      <c r="Q761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
